--- a/merancang-kurikulum-baru-lagi.xlsx
+++ b/merancang-kurikulum-baru-lagi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Kelas 1</t>
   </si>
@@ -23,6 +23,171 @@
   </si>
   <si>
     <t>Kelas 3</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Pengenalan komputer</t>
+  </si>
+  <si>
+    <t>Ejaan yang disempurnakan</t>
+  </si>
+  <si>
+    <t>Excel 13: Laporan penjualan</t>
+  </si>
+  <si>
+    <t>Mengetik 10 jari</t>
+  </si>
+  <si>
+    <t>Cara mendapatkan banyak ide</t>
+  </si>
+  <si>
+    <t>Excel 14: Umur</t>
+  </si>
+  <si>
+    <t>Diskusi ebook</t>
+  </si>
+  <si>
+    <t>Menulis ebook</t>
+  </si>
+  <si>
+    <t>Cara membuat template Excel</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>Diskusi template Excel</t>
+  </si>
+  <si>
+    <t>Membuat template Excel</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Lomba mengetik 10 jari</t>
+  </si>
+  <si>
+    <t>Menggabungkan ebook</t>
+  </si>
+  <si>
+    <t>Menggabungkan template Excel</t>
+  </si>
+  <si>
+    <t>Memahami digital era</t>
+  </si>
+  <si>
+    <t>Membuat cover ebook</t>
+  </si>
+  <si>
+    <t>Membuat landing page</t>
+  </si>
+  <si>
+    <t>Menentukan target market</t>
+  </si>
+  <si>
+    <t>Buat grup WhatsApp</t>
+  </si>
+  <si>
+    <t>Strategi konten</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Word 1: Pengaturan paragraf dan teks</t>
+  </si>
+  <si>
+    <t>Strategi WhatsApp</t>
+  </si>
+  <si>
+    <t>Pengenalan tools Power Point</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Word 2: Bullet, numbering, tabulasi, dan indentasi</t>
+  </si>
+  <si>
+    <t>Membuat template Power Point</t>
+  </si>
+  <si>
+    <t>Word 3: Bullet, numbering, tabulasi, dan indentasi</t>
+  </si>
+  <si>
+    <t>Excel 1: Jatuh tempo</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>Excel 2: Nama tengah</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Word 4: Setting koran</t>
+  </si>
+  <si>
+    <t>Excel 3: Tempat tanggal lahir</t>
+  </si>
+  <si>
+    <t>Excel 4: Ranking</t>
+  </si>
+  <si>
+    <t>Word 5: Word art dan table</t>
+  </si>
+  <si>
+    <t>Excel 5: Belanja</t>
+  </si>
+  <si>
+    <t>Excel 6: Memisahkan judul film</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Word 6: Penomoran outline dan footnote</t>
+  </si>
+  <si>
+    <t>Excel 7: Gabung nama</t>
+  </si>
+  <si>
+    <t>Excel 8: Hari</t>
+  </si>
+  <si>
+    <t>Kelas desain</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>Word 7: Struktur organisasi</t>
+  </si>
+  <si>
+    <t>Excel 9: Penjumlahan</t>
+  </si>
+  <si>
+    <t>Word 8: Menggambar dengan fasilitas drawing</t>
+  </si>
+  <si>
+    <t>Excel 10: Textjoin</t>
+  </si>
+  <si>
+    <t>Word 9: Mail merge</t>
+  </si>
+  <si>
+    <t>Excel 11: Pivot table</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Excel 12: Vlookup</t>
   </si>
 </sst>
 </file>
@@ -30,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -53,6 +218,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -60,47 +256,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,9 +277,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +331,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -135,61 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,25 +369,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,55 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,42 +531,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,49 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,15 +582,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -442,17 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +634,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -498,145 +663,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,13 +1129,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="42.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="26.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="27.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="42.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -981,6 +1152,476 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/merancang-kurikulum-baru-lagi.xlsx
+++ b/merancang-kurikulum-baru-lagi.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="21" r:id="rId1"/>
+    <sheet name="ringkasan" sheetId="21" r:id="rId1"/>
+    <sheet name="daftar isi" sheetId="22" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Kelas 1</t>
   </si>
@@ -188,6 +189,42 @@
   </si>
   <si>
     <t>Excel 12: Vlookup</t>
+  </si>
+  <si>
+    <t>DAFTAR ISI</t>
+  </si>
+  <si>
+    <t>Pekan</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Agu</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Okt</t>
+  </si>
+  <si>
+    <t>Apr</t>
   </si>
 </sst>
 </file>
@@ -200,9 +237,16 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -554,12 +598,279 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="28">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,153 +974,219 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,8 +1508,8 @@
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1628,4 +2005,349 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.22222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77777777777778" style="1" customWidth="1"/>
+    <col min="3" max="5" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.11111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77777777777778" style="1" customWidth="1"/>
+    <col min="9" max="11" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="15.75"/>
+    <row r="3" ht="15.75" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="10">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:11">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12"/>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:11">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <v>4</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <v>4</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:11">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="18"/>
+      <c r="G17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" ht="15.75" spans="7:11">
+      <c r="G18" s="7"/>
+      <c r="H18" s="8">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" ht="15.75" spans="7:11">
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <v>4</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/merancang-kurikulum-baru-lagi.xlsx
+++ b/merancang-kurikulum-baru-lagi.xlsx
@@ -10,12 +10,15 @@
     <sheet name="ringkasan" sheetId="21" r:id="rId1"/>
     <sheet name="daftar isi" sheetId="22" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'daftar isi'!$A$1:$E$33</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>Kelas 1</t>
   </si>
@@ -200,28 +203,28 @@
     <t>Jul</t>
   </si>
   <si>
+    <t>Agu</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Okt</t>
+  </si>
+  <si>
     <t>Nov</t>
   </si>
   <si>
     <t>Des</t>
   </si>
   <si>
-    <t>Agu</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
     <t>Feb</t>
   </si>
   <si>
     <t>Mar</t>
-  </si>
-  <si>
-    <t>Okt</t>
   </si>
   <si>
     <t>Apr</t>
@@ -231,11 +234,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;Halaman&quot;\ General"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -250,6 +254,66 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,15 +334,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,58 +360,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,19 +386,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,20 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,31 +417,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,151 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,6 +727,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -751,26 +820,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -788,58 +844,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -957,169 +961,169 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,24 +1143,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,25 +1182,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,7 +1525,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2010,25 +2026,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.22222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.77777777777778" style="1" customWidth="1"/>
-    <col min="3" max="5" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.11111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77777777777778" style="1" customWidth="1"/>
-    <col min="9" max="11" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="1"/>
+    <col min="3" max="5" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:11">
+    <row r="1" ht="45" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -2036,15 +2048,8 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" ht="15.75"/>
-    <row r="3" ht="15.75" spans="1:11">
+    </row>
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -2055,299 +2060,496 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27</v>
+      </c>
+      <c r="E4" s="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>29</v>
+      </c>
+      <c r="E5" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>31</v>
+      </c>
+      <c r="E6" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>31</v>
+      </c>
+      <c r="E7" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="8">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:11">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="10">
-        <v>4</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" ht="15.75" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>31</v>
+      </c>
+      <c r="E8" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8">
-        <v>2</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8">
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8">
+      <c r="D9" s="10">
+        <v>31</v>
+      </c>
+      <c r="E9" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12">
         <v>4</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
-        <v>4</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>31</v>
+      </c>
+      <c r="E11" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31</v>
+      </c>
+      <c r="E12" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>32</v>
+      </c>
+      <c r="E13" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:11">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10">
+      <c r="C14" s="10">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10">
+        <v>32</v>
+      </c>
+      <c r="E14" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12">
         <v>4</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="18"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:11">
+      <c r="C15" s="13">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13">
+        <v>32</v>
+      </c>
+      <c r="E15" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10">
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32</v>
+      </c>
+      <c r="E16" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13">
+        <v>32</v>
+      </c>
+      <c r="E17" s="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
+        <v>11</v>
+      </c>
+      <c r="D18" s="16">
+        <v>32</v>
+      </c>
+      <c r="E18" s="25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9">
         <v>3</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:11">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10">
+      <c r="C19" s="10">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10">
+        <v>32</v>
+      </c>
+      <c r="E19" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:5">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12">
         <v>4</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="18"/>
-      <c r="G17" s="5" t="s">
+      <c r="C20" s="13">
+        <v>13</v>
+      </c>
+      <c r="D20" s="13">
+        <v>33</v>
+      </c>
+      <c r="E20" s="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20">
+        <v>13</v>
+      </c>
+      <c r="D21" s="20">
+        <v>34</v>
+      </c>
+      <c r="E21" s="26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7">
+        <v>34</v>
+      </c>
+      <c r="E22" s="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>15</v>
+      </c>
+      <c r="D23" s="10">
+        <v>34</v>
+      </c>
+      <c r="E23" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>17</v>
+      </c>
+      <c r="D24" s="10">
+        <v>35</v>
+      </c>
+      <c r="E24" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:5">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13">
+        <v>17</v>
+      </c>
+      <c r="D25" s="13">
+        <v>35</v>
+      </c>
+      <c r="E25" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7">
+        <v>36</v>
+      </c>
+      <c r="E26" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12">
+        <v>4</v>
+      </c>
+      <c r="C27" s="13">
+        <v>19</v>
+      </c>
+      <c r="D27" s="13">
+        <v>36</v>
+      </c>
+      <c r="E27" s="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7">
+        <v>37</v>
+      </c>
+      <c r="E28" s="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>22</v>
+      </c>
+      <c r="D29" s="10">
+        <v>37</v>
+      </c>
+      <c r="E29" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12">
+        <v>3</v>
+      </c>
+      <c r="C30" s="13">
+        <v>24</v>
+      </c>
+      <c r="D30" s="13">
+        <v>38</v>
+      </c>
+      <c r="E30" s="24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="6">
+      <c r="B31" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" ht="15.75" spans="7:11">
-      <c r="G18" s="7"/>
-      <c r="H18" s="8">
+      <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>38</v>
+      </c>
+      <c r="E31" s="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9">
         <v>3</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" ht="15.75" spans="7:11">
-      <c r="G19" s="9"/>
-      <c r="H19" s="10">
+      <c r="C32" s="10">
+        <v>24</v>
+      </c>
+      <c r="D32" s="10">
+        <v>39</v>
+      </c>
+      <c r="E32" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12">
         <v>4</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="18"/>
+      <c r="C33" s="13">
+        <v>24</v>
+      </c>
+      <c r="D33" s="13">
+        <v>39</v>
+      </c>
+      <c r="E33" s="24">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/merancang-kurikulum-baru-lagi.xlsx
+++ b/merancang-kurikulum-baru-lagi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ringkasan" sheetId="21" r:id="rId1"/>
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'daftar isi'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ringkasan!$A$1:$E$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -38,160 +39,160 @@
     <t>Ejaan yang disempurnakan</t>
   </si>
   <si>
+    <t>Excel 14: Umur</t>
+  </si>
+  <si>
+    <t>Mengetik 10 jari</t>
+  </si>
+  <si>
+    <t>Cara mendapatkan banyak ide</t>
+  </si>
+  <si>
+    <t>Cara membuat template Excel</t>
+  </si>
+  <si>
+    <t>Diskusi ebook</t>
+  </si>
+  <si>
+    <t>Diskusi template Excel</t>
+  </si>
+  <si>
+    <t>Menulis ebook</t>
+  </si>
+  <si>
+    <t>Membuat template Excel</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>Menggabungkan template Excel</t>
+  </si>
+  <si>
+    <t>Membuat landing page</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Lomba mengetik 10 jari</t>
+  </si>
+  <si>
+    <t>Menggabungkan ebook</t>
+  </si>
+  <si>
+    <t>Memahami digital era</t>
+  </si>
+  <si>
+    <t>Membuat cover ebook</t>
+  </si>
+  <si>
+    <t>Strategi konten</t>
+  </si>
+  <si>
+    <t>Menentukan target market</t>
+  </si>
+  <si>
+    <t>Strategi WhatsApp</t>
+  </si>
+  <si>
+    <t>Buat grup WhatsApp</t>
+  </si>
+  <si>
+    <t>Pengenalan tools Power Point</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Word 1: Pengaturan paragraf dan teks</t>
+  </si>
+  <si>
+    <t>Membuat template Power Point</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Word 2: Bullet, numbering, tabulasi, dan indentasi</t>
+  </si>
+  <si>
+    <t>Excel 1: Jatuh tempo</t>
+  </si>
+  <si>
+    <t>Excel 2: Nama tengah</t>
+  </si>
+  <si>
+    <t>Word 3: Bullet, numbering, tabulasi, dan indentasi</t>
+  </si>
+  <si>
+    <t>Excel 3: Tempat tanggal lahir</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>Excel 4: Ranking</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Word 4: Setting koran</t>
+  </si>
+  <si>
+    <t>Excel 5: Belanja</t>
+  </si>
+  <si>
+    <t>Excel 6: Memisahkan judul film</t>
+  </si>
+  <si>
+    <t>Word 5: Word art dan table</t>
+  </si>
+  <si>
+    <t>Excel 7: Gabung nama</t>
+  </si>
+  <si>
+    <t>Excel 8: Hari</t>
+  </si>
+  <si>
+    <t>Kelas desain</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Word 6: Penomoran outline dan footnote</t>
+  </si>
+  <si>
+    <t>Excel 9: Penjumlahan</t>
+  </si>
+  <si>
+    <t>Excel 10: Textjoin</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>Word 7: Struktur organisasi</t>
+  </si>
+  <si>
+    <t>Excel 11: Pivot table</t>
+  </si>
+  <si>
+    <t>Word 8: Menggambar dengan fasilitas drawing</t>
+  </si>
+  <si>
+    <t>Word 9: Mail merge</t>
+  </si>
+  <si>
+    <t>Excel 12: Vlookup</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
     <t>Excel 13: Laporan penjualan</t>
-  </si>
-  <si>
-    <t>Mengetik 10 jari</t>
-  </si>
-  <si>
-    <t>Cara mendapatkan banyak ide</t>
-  </si>
-  <si>
-    <t>Excel 14: Umur</t>
-  </si>
-  <si>
-    <t>Diskusi ebook</t>
-  </si>
-  <si>
-    <t>Menulis ebook</t>
-  </si>
-  <si>
-    <t>Cara membuat template Excel</t>
-  </si>
-  <si>
-    <t>Agustus</t>
-  </si>
-  <si>
-    <t>Diskusi template Excel</t>
-  </si>
-  <si>
-    <t>Membuat template Excel</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Lomba mengetik 10 jari</t>
-  </si>
-  <si>
-    <t>Menggabungkan ebook</t>
-  </si>
-  <si>
-    <t>Menggabungkan template Excel</t>
-  </si>
-  <si>
-    <t>Memahami digital era</t>
-  </si>
-  <si>
-    <t>Membuat cover ebook</t>
-  </si>
-  <si>
-    <t>Membuat landing page</t>
-  </si>
-  <si>
-    <t>Menentukan target market</t>
-  </si>
-  <si>
-    <t>Buat grup WhatsApp</t>
-  </si>
-  <si>
-    <t>Strategi konten</t>
-  </si>
-  <si>
-    <t>Oktober</t>
-  </si>
-  <si>
-    <t>Word 1: Pengaturan paragraf dan teks</t>
-  </si>
-  <si>
-    <t>Strategi WhatsApp</t>
-  </si>
-  <si>
-    <t>Pengenalan tools Power Point</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Word 2: Bullet, numbering, tabulasi, dan indentasi</t>
-  </si>
-  <si>
-    <t>Membuat template Power Point</t>
-  </si>
-  <si>
-    <t>Word 3: Bullet, numbering, tabulasi, dan indentasi</t>
-  </si>
-  <si>
-    <t>Excel 1: Jatuh tempo</t>
-  </si>
-  <si>
-    <t>Desember</t>
-  </si>
-  <si>
-    <t>Excel 2: Nama tengah</t>
-  </si>
-  <si>
-    <t>Januari</t>
-  </si>
-  <si>
-    <t>Word 4: Setting koran</t>
-  </si>
-  <si>
-    <t>Excel 3: Tempat tanggal lahir</t>
-  </si>
-  <si>
-    <t>Excel 4: Ranking</t>
-  </si>
-  <si>
-    <t>Word 5: Word art dan table</t>
-  </si>
-  <si>
-    <t>Excel 5: Belanja</t>
-  </si>
-  <si>
-    <t>Excel 6: Memisahkan judul film</t>
-  </si>
-  <si>
-    <t>Februari</t>
-  </si>
-  <si>
-    <t>Word 6: Penomoran outline dan footnote</t>
-  </si>
-  <si>
-    <t>Excel 7: Gabung nama</t>
-  </si>
-  <si>
-    <t>Excel 8: Hari</t>
-  </si>
-  <si>
-    <t>Kelas desain</t>
-  </si>
-  <si>
-    <t>Maret</t>
-  </si>
-  <si>
-    <t>Word 7: Struktur organisasi</t>
-  </si>
-  <si>
-    <t>Excel 9: Penjumlahan</t>
-  </si>
-  <si>
-    <t>Word 8: Menggambar dengan fasilitas drawing</t>
-  </si>
-  <si>
-    <t>Excel 10: Textjoin</t>
-  </si>
-  <si>
-    <t>Word 9: Mail merge</t>
-  </si>
-  <si>
-    <t>Excel 11: Pivot table</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Excel 12: Vlookup</t>
   </si>
   <si>
     <t>DAFTAR ISI</t>
@@ -235,11 +236,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;Halaman&quot;\ General"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="&quot;Halaman&quot;\ General"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -272,27 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -301,17 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,24 +304,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +328,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,16 +371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +392,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,186 +424,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -875,6 +876,30 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -902,6 +927,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -917,6 +966,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -932,32 +992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -966,164 +1000,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1152,7 +1177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1161,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1170,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1182,27 +1207,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1522,503 +1551,518 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="42.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="26.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="27.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="42.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="9.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="2.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="42.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="27.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="42.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
+    <row r="1" spans="3:5">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="29">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="29">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="E4" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="30">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="E5" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="D6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="29">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="29">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="29">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="C12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="30">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="E13" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="28">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="C14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="30">
+        <v>4</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="29">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="30">
+        <v>4</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="27">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="29">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="22" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="C22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="30">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="C23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="28">
+        <v>3</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9"/>
+      <c r="B25" s="30">
+        <v>4</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="28">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="C26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="29">
+        <v>2</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9"/>
+      <c r="B28" s="30">
+        <v>3</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="28">
+        <v>2</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9"/>
+      <c r="B30" s="29">
+        <v>3</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9"/>
+      <c r="B31" s="30">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2028,7 +2072,7 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2049,6 +2093,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
+    <row r="2" ht="15.75"/>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">

--- a/merancang-kurikulum-baru-lagi.xlsx
+++ b/merancang-kurikulum-baru-lagi.xlsx
@@ -12,14 +12,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'daftar isi'!$A$1:$E$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ringkasan!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ringkasan!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+  <si>
+    <t>Kurikulum Komputer</t>
+  </si>
   <si>
     <t>Kelas 1</t>
   </si>
@@ -75,30 +78,21 @@
     <t>September</t>
   </si>
   <si>
+    <t>Menggabungkan ebook</t>
+  </si>
+  <si>
+    <t>Membuat cover ebook</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
     <t>Lomba mengetik 10 jari</t>
   </si>
   <si>
-    <t>Menggabungkan ebook</t>
-  </si>
-  <si>
     <t>Memahami digital era</t>
   </si>
   <si>
-    <t>Membuat cover ebook</t>
-  </si>
-  <si>
-    <t>Strategi konten</t>
-  </si>
-  <si>
-    <t>Menentukan target market</t>
-  </si>
-  <si>
-    <t>Strategi WhatsApp</t>
-  </si>
-  <si>
-    <t>Buat grup WhatsApp</t>
-  </si>
-  <si>
     <t>Pengenalan tools Power Point</t>
   </si>
   <si>
@@ -106,6 +100,9 @@
   </si>
   <si>
     <t>Word 1: Pengaturan paragraf dan teks</t>
+  </si>
+  <si>
+    <t>Belajar Morph</t>
   </si>
   <si>
     <t>Membuat template Power Point</t>
@@ -236,13 +233,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="&quot;Halaman&quot;\ General"/>
+    <numFmt numFmtId="176" formatCode="&quot;Halaman&quot;\ General"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,34 +255,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,7 +271,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,8 +299,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +348,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -335,7 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,14 +392,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,44 +412,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -418,61 +422,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,128 +606,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -895,6 +899,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -927,11 +949,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,6 +979,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -976,179 +1022,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1177,7 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1186,7 +1208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1195,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1207,31 +1229,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1551,10 +1581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1567,498 +1597,508 @@
     <col min="7" max="7" width="42.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5">
-      <c r="C1" s="27" t="s">
+    <row r="1" ht="27.75" spans="1:5">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="D4" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="29">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="29">
-        <v>3</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9"/>
-      <c r="B5" s="30">
-        <v>4</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="31">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="31">
+        <v>3</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="B7" s="32">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="32" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="29">
-        <v>3</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
-      <c r="B9" s="30">
-        <v>4</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>16</v>
+      <c r="B9" s="31">
+        <v>2</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="28">
-        <v>1</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="31">
+        <v>3</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9"/>
-      <c r="B11" s="29">
-        <v>2</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>22</v>
+      <c r="B11" s="32">
+        <v>4</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="29">
-        <v>3</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>24</v>
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9"/>
-      <c r="B13" s="30">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>26</v>
+      <c r="B13" s="33">
+        <v>2</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="31">
+        <v>3</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>26</v>
+      <c r="D14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9"/>
-      <c r="B15" s="30">
+      <c r="B15" s="32">
         <v>4</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>24</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="28">
+        <v>25</v>
+      </c>
+      <c r="B16" s="30">
         <v>1</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>29</v>
+      <c r="C16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="9"/>
-      <c r="B17" s="29">
+      <c r="B17" s="32">
+        <v>4</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="30">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="31">
         <v>3</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="C19" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="32">
+        <v>4</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="30">
-        <v>4</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="E20" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="B21" s="29">
+        <v>1</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="27">
+      <c r="E21" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="30">
         <v>1</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="C22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="28">
-        <v>1</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="D22" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="29">
-        <v>2</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="29">
-        <v>3</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>24</v>
+      <c r="E22" s="30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9"/>
-      <c r="B23" s="30">
-        <v>4</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="31">
+        <v>2</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="31">
+        <v>3</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="28">
-        <v>3</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>45</v>
+      <c r="E24" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9"/>
-      <c r="B25" s="30">
+      <c r="B25" s="32">
         <v>4</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>45</v>
+      <c r="C25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="28">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="28" t="s">
         <v>45</v>
+      </c>
+      <c r="B26" s="30">
+        <v>3</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9"/>
-      <c r="B27" s="29">
+      <c r="B27" s="32">
+        <v>4</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="30">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9"/>
+      <c r="B29" s="31">
         <v>2</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="29" t="s">
+      <c r="C29" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="30">
-        <v>3</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="28">
-        <v>2</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>45</v>
+      <c r="D29" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9"/>
-      <c r="B30" s="29">
+      <c r="B30" s="32">
         <v>3</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>45</v>
+      <c r="E30" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9"/>
+      <c r="A31" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="B31" s="30">
+        <v>2</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9"/>
+      <c r="B32" s="31">
+        <v>3</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9"/>
+      <c r="B33" s="32">
         <v>4</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>45</v>
+      <c r="C33" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2086,7 +2126,7 @@
   <sheetData>
     <row r="1" ht="45" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2097,21 +2137,21 @@
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -2173,7 +2213,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -2235,7 +2275,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -2297,7 +2337,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2329,7 +2369,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
@@ -2376,7 +2416,7 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="19">
         <v>1</v>
@@ -2393,7 +2433,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2455,7 +2495,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
@@ -2487,7 +2527,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2534,7 +2574,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>

--- a/merancang-kurikulum-baru-lagi.xlsx
+++ b/merancang-kurikulum-baru-lagi.xlsx
@@ -8,18 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="ringkasan" sheetId="21" r:id="rId1"/>
-    <sheet name="daftar isi" sheetId="22" r:id="rId2"/>
+    <sheet name="ringkasan backup" sheetId="23" r:id="rId2"/>
+    <sheet name="daftar isi" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'daftar isi'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'daftar isi'!$A$1:$E$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ringkasan!$A$1:$E$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ringkasan backup'!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="70">
   <si>
     <t>Kurikulum Komputer</t>
   </si>
@@ -42,154 +44,157 @@
     <t>Ejaan yang disempurnakan</t>
   </si>
   <si>
+    <t>Membuat template Excel</t>
+  </si>
+  <si>
+    <t>Mengetik 10 jari</t>
+  </si>
+  <si>
+    <t>Cara mendapatkan banyak ide</t>
+  </si>
+  <si>
+    <t>Diskusi ebook</t>
+  </si>
+  <si>
+    <t>Menggabungkan template Excel</t>
+  </si>
+  <si>
+    <t>Menulis ebook</t>
+  </si>
+  <si>
+    <t>Pengenalan tools Power Point</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>Belajar Morph</t>
+  </si>
+  <si>
+    <t>Membuat template Power Point</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Menggabungkan ebook</t>
+  </si>
+  <si>
+    <t>Membuat cover ebook</t>
+  </si>
+  <si>
+    <t>WhatsApp Marketing</t>
+  </si>
+  <si>
+    <t>Lomba mengetik 10 jari</t>
+  </si>
+  <si>
+    <t>Excel 1: Jatuh tempo</t>
+  </si>
+  <si>
+    <t>Memahami digital era</t>
+  </si>
+  <si>
+    <t>Excel 2: Nama tengah</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Word 1: Pengaturan paragraf dan teks</t>
+  </si>
+  <si>
+    <t>Excel 3: Tempat tanggal lahir</t>
+  </si>
+  <si>
+    <t>Excel 4: Ranking</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Word 2: Bullet, numbering, tabulasi, dan indentasi</t>
+  </si>
+  <si>
+    <t>Excel 5: Belanja</t>
+  </si>
+  <si>
+    <t>Excel 6: Memisahkan judul film</t>
+  </si>
+  <si>
+    <t>Word 3: Bullet, numbering, tabulasi, dan indentasi</t>
+  </si>
+  <si>
+    <t>Excel 7: Gabung nama</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>Excel 8: Hari</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Word 4: Setting koran</t>
+  </si>
+  <si>
+    <t>Excel 9: Penjumlahan</t>
+  </si>
+  <si>
+    <t>Excel 10: Textjoin</t>
+  </si>
+  <si>
+    <t>Word 5: Word art dan table</t>
+  </si>
+  <si>
+    <t>Excel 11: Pivot table</t>
+  </si>
+  <si>
+    <t>Kelas desain</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Word 6: Penomoran outline dan footnote</t>
+  </si>
+  <si>
+    <t>Excel 12: Vlookup</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>Word 7: Struktur organisasi</t>
+  </si>
+  <si>
+    <t>Excel 13: Laporan penjualan</t>
+  </si>
+  <si>
+    <t>Word 8: Menggambar dengan fasilitas drawing</t>
+  </si>
+  <si>
     <t>Excel 14: Umur</t>
   </si>
   <si>
-    <t>Mengetik 10 jari</t>
-  </si>
-  <si>
-    <t>Cara mendapatkan banyak ide</t>
+    <t>Word 9: Mail merge</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
   <si>
     <t>Cara membuat template Excel</t>
   </si>
   <si>
-    <t>Diskusi ebook</t>
-  </si>
-  <si>
     <t>Diskusi template Excel</t>
   </si>
   <si>
-    <t>Menulis ebook</t>
-  </si>
-  <si>
-    <t>Membuat template Excel</t>
-  </si>
-  <si>
-    <t>Agustus</t>
-  </si>
-  <si>
-    <t>Menggabungkan template Excel</t>
-  </si>
-  <si>
     <t>Membuat landing page</t>
   </si>
   <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Menggabungkan ebook</t>
-  </si>
-  <si>
-    <t>Membuat cover ebook</t>
-  </si>
-  <si>
     <t>Publish</t>
-  </si>
-  <si>
-    <t>Lomba mengetik 10 jari</t>
-  </si>
-  <si>
-    <t>Memahami digital era</t>
-  </si>
-  <si>
-    <t>Pengenalan tools Power Point</t>
-  </si>
-  <si>
-    <t>Oktober</t>
-  </si>
-  <si>
-    <t>Word 1: Pengaturan paragraf dan teks</t>
-  </si>
-  <si>
-    <t>Belajar Morph</t>
-  </si>
-  <si>
-    <t>Membuat template Power Point</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Word 2: Bullet, numbering, tabulasi, dan indentasi</t>
-  </si>
-  <si>
-    <t>Excel 1: Jatuh tempo</t>
-  </si>
-  <si>
-    <t>Excel 2: Nama tengah</t>
-  </si>
-  <si>
-    <t>Word 3: Bullet, numbering, tabulasi, dan indentasi</t>
-  </si>
-  <si>
-    <t>Excel 3: Tempat tanggal lahir</t>
-  </si>
-  <si>
-    <t>Desember</t>
-  </si>
-  <si>
-    <t>Excel 4: Ranking</t>
-  </si>
-  <si>
-    <t>Januari</t>
-  </si>
-  <si>
-    <t>Word 4: Setting koran</t>
-  </si>
-  <si>
-    <t>Excel 5: Belanja</t>
-  </si>
-  <si>
-    <t>Excel 6: Memisahkan judul film</t>
-  </si>
-  <si>
-    <t>Word 5: Word art dan table</t>
-  </si>
-  <si>
-    <t>Excel 7: Gabung nama</t>
-  </si>
-  <si>
-    <t>Excel 8: Hari</t>
-  </si>
-  <si>
-    <t>Kelas desain</t>
-  </si>
-  <si>
-    <t>Februari</t>
-  </si>
-  <si>
-    <t>Word 6: Penomoran outline dan footnote</t>
-  </si>
-  <si>
-    <t>Excel 9: Penjumlahan</t>
-  </si>
-  <si>
-    <t>Excel 10: Textjoin</t>
-  </si>
-  <si>
-    <t>Maret</t>
-  </si>
-  <si>
-    <t>Word 7: Struktur organisasi</t>
-  </si>
-  <si>
-    <t>Excel 11: Pivot table</t>
-  </si>
-  <si>
-    <t>Word 8: Menggambar dengan fasilitas drawing</t>
-  </si>
-  <si>
-    <t>Word 9: Mail merge</t>
-  </si>
-  <si>
-    <t>Excel 12: Vlookup</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Excel 13: Laporan penjualan</t>
   </si>
   <si>
     <t>DAFTAR ISI</t>
@@ -234,10 +239,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;Halaman&quot;\ General"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -285,97 +290,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -392,7 +306,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +412,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +427,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,31 +535,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,13 +577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,115 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +927,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -936,30 +965,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,15 +987,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -998,16 +994,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,145 +1018,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,9 +1254,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1583,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1594,26 +1596,25 @@
     <col min="3" max="3" width="42.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="27.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="42.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1621,470 +1622,470 @@
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9"/>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>10</v>
+      <c r="E5" s="30" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="9"/>
-      <c r="B6" s="31">
-        <v>3</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="30">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>4</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="30">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>14</v>
+      <c r="D9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
-      <c r="B10" s="31">
-        <v>3</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="30">
+        <v>3</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9"/>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>17</v>
+      <c r="D11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="30">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>17</v>
+      <c r="E12" s="29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9"/>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9"/>
-      <c r="B14" s="31">
-        <v>3</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="30">
+        <v>3</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>21</v>
+      <c r="E14" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9"/>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>24</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>1</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>27</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="9"/>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>4</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>28</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>1</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>28</v>
+      <c r="E18" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9"/>
-      <c r="B19" s="31">
-        <v>3</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="30">
+        <v>3</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>28</v>
+      <c r="E19" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9"/>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>4</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>28</v>
+      <c r="E20" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>1</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>17</v>
+      <c r="E21" s="28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <v>1</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>17</v>
+      <c r="E22" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9"/>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>2</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>21</v>
+      <c r="E23" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9"/>
-      <c r="B24" s="31">
-        <v>3</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="30">
+        <v>3</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>21</v>
+      <c r="E24" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9"/>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>4</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>43</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="29">
+        <v>3</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="30">
-        <v>3</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>44</v>
+      <c r="E26" s="29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9"/>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>4</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>44</v>
+      <c r="E27" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="29">
+        <v>1</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="30">
-        <v>1</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>44</v>
+      <c r="E28" s="29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9"/>
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <v>2</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>44</v>
+      <c r="E29" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9"/>
-      <c r="B30" s="32">
-        <v>3</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>44</v>
+      <c r="B30" s="31">
+        <v>3</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="30">
+        <v>53</v>
+      </c>
+      <c r="B31" s="29">
         <v>2</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>44</v>
+      <c r="E31" s="29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9"/>
-      <c r="B32" s="31">
-        <v>3</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>44</v>
+      <c r="B32" s="30">
+        <v>3</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="9"/>
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>4</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="32" t="s">
+      <c r="C33" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="32" t="s">
-        <v>44</v>
+      <c r="E33" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2112,6 +2113,535 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="2.22222222222222" customWidth="1"/>
+    <col min="3" max="3" width="42.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="27.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="42.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.75" spans="1:5">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="30">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="30">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="31">
+        <v>4</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30">
+        <v>2</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="30">
+        <v>3</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="31">
+        <v>4</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="30">
+        <v>3</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="31">
+        <v>4</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="31">
+        <v>4</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="30">
+        <v>3</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="31">
+        <v>4</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="30">
+        <v>2</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="30">
+        <v>3</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9"/>
+      <c r="B25" s="31">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="29">
+        <v>3</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="31">
+        <v>4</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="29">
+        <v>1</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9"/>
+      <c r="B29" s="30">
+        <v>2</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9"/>
+      <c r="B30" s="31">
+        <v>3</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="29">
+        <v>2</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9"/>
+      <c r="B32" s="30">
+        <v>3</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9"/>
+      <c r="B33" s="31">
+        <v>4</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
@@ -2126,7 +2656,7 @@
   <sheetData>
     <row r="1" ht="45" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2137,7 +2667,7 @@
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -2151,7 +2681,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -2213,7 +2743,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -2275,7 +2805,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -2337,7 +2867,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2369,7 +2899,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
@@ -2416,7 +2946,7 @@
     </row>
     <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="19">
         <v>1</v>
@@ -2433,7 +2963,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2495,7 +3025,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
@@ -2527,7 +3057,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2574,7 +3104,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
